--- a/database/seeders/sells.xlsx
+++ b/database/seeders/sells.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CRM\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD66495A-7CED-45CD-8289-A3736F52A9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5497E38B-AA79-4920-B7F1-816A0E546BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sells (1)" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -896,12 +896,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -980,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>1025</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1000,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>2048</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1020,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="F6">
-        <v>2048</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1100,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>2049</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1120,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>257</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1140,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <v>1537</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1160,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>1281</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1180,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>1536</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1200,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>2048</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1220,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>769</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1240,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="F17">
-        <v>1541</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1320,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="F21">
-        <v>2816</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1340,7 +1349,7 @@
         <v>9</v>
       </c>
       <c r="F22">
-        <v>1280</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1360,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="F23">
-        <v>2050</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1380,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="F24">
-        <v>768</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1400,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <v>1285</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1420,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>2305</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1440,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="F27">
-        <v>513</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1460,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="F28">
-        <v>514</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1480,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>1538</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1500,7 +1509,7 @@
         <v>6</v>
       </c>
       <c r="F30">
-        <v>515</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1520,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="F31">
-        <v>2308</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1540,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="F32">
-        <v>2053</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1560,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="F33">
-        <v>2560</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
